--- a/artfynd/A 48884-2021.xlsx
+++ b/artfynd/A 48884-2021.xlsx
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102089519</v>
+        <v>102089658</v>
       </c>
       <c r="B4" t="n">
         <v>78098</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>436719.9989723715</v>
+        <v>436500.5104121323</v>
       </c>
       <c r="R4" t="n">
-        <v>6826833.746279179</v>
+        <v>6827329.967810398</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102089499</v>
+        <v>102089519</v>
       </c>
       <c r="B5" t="n">
         <v>78098</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>436795.9152835784</v>
+        <v>436719.9989723715</v>
       </c>
       <c r="R5" t="n">
-        <v>6826835.694220046</v>
+        <v>6826833.746279179</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102089518</v>
+        <v>102089499</v>
       </c>
       <c r="B6" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>436745.1602881325</v>
+        <v>436795.9152835784</v>
       </c>
       <c r="R6" t="n">
-        <v>6826800.40687584</v>
+        <v>6826835.694220046</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102089652</v>
+        <v>102089518</v>
       </c>
       <c r="B7" t="n">
-        <v>89633</v>
+        <v>77258</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>65</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>436792.8352663805</v>
+        <v>436745.1602881325</v>
       </c>
       <c r="R7" t="n">
-        <v>6826823.837742299</v>
+        <v>6826800.40687584</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>102089546</v>
+        <v>102089652</v>
       </c>
       <c r="B8" t="n">
-        <v>77258</v>
+        <v>89633</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>65</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>436728.3378123537</v>
+        <v>436792.8352663805</v>
       </c>
       <c r="R8" t="n">
-        <v>6826872.190838255</v>
+        <v>6826823.837742299</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>102089632</v>
+        <v>102089546</v>
       </c>
       <c r="B9" t="n">
-        <v>76909</v>
+        <v>77258</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,37 +1480,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6437</v>
+        <v>6446</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Tadugrav, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>436882.212493244</v>
+        <v>436728.3378123537</v>
       </c>
       <c r="R9" t="n">
-        <v>6826778.843434816</v>
+        <v>6826872.190838255</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1561,7 +1558,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1580,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102089658</v>
+        <v>102089632</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>76909</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,34 +1592,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Tadugrav, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>436500.5104121323</v>
+        <v>436882.212493244</v>
       </c>
       <c r="R10" t="n">
-        <v>6827329.967810398</v>
+        <v>6826778.843434816</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1674,6 +1673,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 48884-2021.xlsx
+++ b/artfynd/A 48884-2021.xlsx
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>102089658</v>
+        <v>102089519</v>
       </c>
       <c r="B4" t="n">
         <v>78098</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>436500.5104121323</v>
+        <v>436719.9989723715</v>
       </c>
       <c r="R4" t="n">
-        <v>6827329.967810398</v>
+        <v>6826833.746279179</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>102089519</v>
+        <v>102089499</v>
       </c>
       <c r="B5" t="n">
         <v>78098</v>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>436719.9989723715</v>
+        <v>436795.9152835784</v>
       </c>
       <c r="R5" t="n">
-        <v>6826833.746279179</v>
+        <v>6826835.694220046</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102089499</v>
+        <v>102089518</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>436795.9152835784</v>
+        <v>436745.1602881325</v>
       </c>
       <c r="R6" t="n">
-        <v>6826835.694220046</v>
+        <v>6826800.40687584</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102089518</v>
+        <v>102089652</v>
       </c>
       <c r="B7" t="n">
-        <v>77258</v>
+        <v>89633</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1252,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>65</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>436745.1602881325</v>
+        <v>436792.8352663805</v>
       </c>
       <c r="R7" t="n">
-        <v>6826800.40687584</v>
+        <v>6826823.837742299</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>102089652</v>
+        <v>102089546</v>
       </c>
       <c r="B8" t="n">
-        <v>89633</v>
+        <v>77258</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1364,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>436792.8352663805</v>
+        <v>436728.3378123537</v>
       </c>
       <c r="R8" t="n">
-        <v>6826823.837742299</v>
+        <v>6826872.190838255</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>102089546</v>
+        <v>102089632</v>
       </c>
       <c r="B9" t="n">
-        <v>77258</v>
+        <v>76909</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1480,34 +1480,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Tadugrav, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>436728.3378123537</v>
+        <v>436882.212493244</v>
       </c>
       <c r="R9" t="n">
-        <v>6826872.190838255</v>
+        <v>6826778.843434816</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1558,6 +1561,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1576,10 +1580,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>102089632</v>
+        <v>102089658</v>
       </c>
       <c r="B10" t="n">
-        <v>76909</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1592,37 +1596,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Tadugrav, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>436882.212493244</v>
+        <v>436500.5104121323</v>
       </c>
       <c r="R10" t="n">
-        <v>6826778.843434816</v>
+        <v>6827329.967810398</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1673,7 +1674,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
